--- a/medicine/Enfance/Mary_Treadgold/Mary_Treadgold.xlsx
+++ b/medicine/Enfance/Mary_Treadgold/Mary_Treadgold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary Treadgold (1910-2005) est une femme de lettres britannique, auteure de littérature d'enfance et de jeunesse et productrice pour la BBC.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">son père travaille à la Bourse de Londres et sa famille connaît une vie aisée. Elle fait ses études dans une école de filles londienne, puis elle fréquente Bedford College de 1930 à 1936. 
 Elle travaille ensuite dans l'éditeur, comme éditrice de livres pour enfants. Désireuse de relever le niveau des pony books qu'elle lit, elle écrit Vacances de guerre (We couldn't leave Dinah) en 1940, dans un abri anti-aérien de Londres. Dans ce roman, les enfants Templeton et leurs amis doivent quitter l'île de la Manche où ils vivent à cause de la guerre, et abandonner leurs poneys. Le livre est publié par Jonathan Cape en 1941 et reçoit la Médaille Carnegie la même année.
@@ -545,7 +559,9 @@
           <t>Œuvre traduite en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vacances de guerre (We couldn't leave Dinah, 1941), traduit de l'anglais par M. M. de Schloezer, illustrations de Stuart Tresilian, Paris : G.-T. Rageot, coll. Heures joyeuses, 1946.</t>
         </is>
